--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>-0.1474887606676356</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>1.003756253906252</v>
+        <v>1.265019766896436</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>1.446222811659204</v>
+        <v>0.337821977117625</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>2.015050062500001</v>
+        <v>1.858657482882586</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.7244770676386514</v>
+        <v>-1.890773121057054</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>2.015050062499957</v>
+        <v>-3.246097549514837</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.147982493328215</v>
+        <v>1.89156560755015</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>0.8024032015999882</v>
+        <v>1.609625625599986</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.1299540917866</v>
+        <v>1.113165545862094</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.205410808099949</v>
+        <v>1.609625625600009</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.9023765013830509</v>
+        <v>1.070385798714391</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.8024032016000104</v>
+        <v>3.238605209599998</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.281673763033231</v>
+        <v>1.384186838979806</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.609625625599986</v>
+        <v>2.777885851461503</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.578526694644333</v>
+        <v>2.349355943833098</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.407367165006268</v>
+        <v>2.436566844071941</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.757626649490707</v>
+        <v>1.786425635558397</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.915091024399063</v>
+        <v>1.694971351092267</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.539873306369466</v>
+        <v>1.331333081915509</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.40736716500629</v>
+        <v>1.216098605743365</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.641178243814534</v>
+        <v>1.282262557986447</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.609625625599986</v>
+        <v>1.784618024189011</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.721643971687081</v>
+        <v>2.247109253368285</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>2.177559070630508</v>
+        <v>4.887093273600018</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>0.0490875891421938</v>
+        <v>-4.247034401476801</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.3994003998998519</v>
+        <v>-12.1986023424</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.6257051103596201</v>
+        <v>-2.608215948579529</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>13.05091907089615</v>
+        <v>12.1815000816919</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>6.244438355648096</v>
+        <v>4.863085601670813</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>6.015149951001053</v>
+        <v>5.870037016039187</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.4907771313788944</v>
+        <v>-1.44371442952016</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-1.122464670489876</v>
+        <v>-1.24582517146522</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.03269760481372508</v>
+        <v>0.06625622369935691</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.02498126405197088</v>
+        <v>-0.1040473946152809</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.6464942014291264</v>
+        <v>0.9919038146506631</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.7773218361398104</v>
+        <v>0.8749339604052775</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-2.608215948579529</v>
+        <v>-8.773175314851734</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>12.1815000816919</v>
+        <v>-19.76612614777711</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>4.863085601670813</v>
+        <v>3.555435198576862</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>5.870037016039187</v>
+        <v>-0.5376914776811126</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-1.44371442952016</v>
+        <v>-2.16280394131193</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-1.24582517146522</v>
+        <v>-4.829433539906846</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.06625622369935691</v>
+        <v>-0.2443666741802408</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.1040473946152809</v>
+        <v>-1.649278360889672</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.9919038146506631</v>
+        <v>1.211873835667365</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.8749339604052775</v>
+        <v>1.973770215219273</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>-0.1474887606676356</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
@@ -474,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.89156560755015</v>
+        <v>1.891565607550105</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>1.609625625599986</v>
+        <v>1.609625625600009</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.113165545862094</v>
+        <v>1.113165545862116</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.609625625600009</v>
+        <v>1.609625625599986</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,7 +511,7 @@
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>3.238605209599998</v>
+        <v>3.238605209600021</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.384186838979806</v>
+        <v>1.384186838979828</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>2.777885851461503</v>
+        <v>2.777885851461526</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,7 +539,7 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>2.349355943833098</v>
+        <v>2.349355943833076</v>
       </c>
       <c r="D9">
         <v>2016</v>
@@ -559,7 +556,7 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.786425635558397</v>
+        <v>1.78642563555842</v>
       </c>
       <c r="D10">
         <v>2017</v>
@@ -582,7 +579,7 @@
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.216098605743365</v>
+        <v>1.216098605743343</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.282262557986447</v>
+        <v>1.282262557986469</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.784618024189011</v>
+        <v>1.784618024189033</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,7 +607,7 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>2.247109253368285</v>
+        <v>2.247109253368307</v>
       </c>
       <c r="D13">
         <v>2020</v>
@@ -627,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-4.247034401476801</v>
+        <v>-4.247034401476779</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-12.1986023424</v>
+        <v>-12.19860234240002</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -667,7 +664,7 @@
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-0.5376914776811126</v>
+        <v>-0.5376914776811237</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +681,7 @@
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-4.829433539906846</v>
+        <v>-4.829433539906869</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.2443666741802408</v>
+        <v>-0.244366674180263</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-1.649278360889672</v>
+        <v>-1.64927836088965</v>
       </c>
     </row>
     <row r="19" spans="1:5">
